--- a/config_10.19/act_hhl_ty_config.xlsx
+++ b/config_10.19/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>line|</t>
   </si>
@@ -115,38 +115,6 @@
   </si>
   <si>
     <t>actp_prop_exchange_nor_v5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -221,11 +189,52 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -733,7 +742,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -763,7 +772,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -779,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -800,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
         <v>1200</v>
@@ -866,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
         <v>3000</v>
@@ -885,10 +894,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>6000</v>
@@ -904,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>9000</v>
@@ -923,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>12000</v>
@@ -942,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <v>24000</v>
@@ -960,10 +969,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2">
         <v>30000</v>
@@ -978,10 +987,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2">
         <v>42000</v>
@@ -991,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -999,9 +1008,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="5">
         <v>60000</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1017,9 +1028,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="5">
         <v>300000</v>
       </c>
@@ -1244,6 +1257,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1254,18 +1278,27 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1275,58 +1308,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_10.19/act_hhl_ty_config.xlsx
+++ b/config_10.19/act_hhl_ty_config.xlsx
@@ -111,18 +111,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -198,14 +186,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_yxb4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_hf2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -234,7 +214,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf200</t>
+    <t>actp_prop_exchange_v5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +313,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,7 +745,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -772,7 +775,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -788,7 +791,7 @@
         <v>28</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -810,7 +813,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2">
         <v>1200</v>
@@ -875,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2">
         <v>3000</v>
@@ -894,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>6000</v>
@@ -913,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>9000</v>
@@ -932,10 +935,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>12000</v>
@@ -951,10 +954,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
         <v>24000</v>
@@ -969,10 +972,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>30000</v>
@@ -987,10 +990,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
         <v>42000</v>
@@ -999,8 +1002,8 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
+      <c r="H9" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1008,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5">
         <v>60000</v>
@@ -1019,8 +1022,8 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>30</v>
+      <c r="H10" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1028,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>53</v>
@@ -1039,8 +1042,8 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>29</v>
+      <c r="H11" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1257,6 +1260,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1267,7 +1300,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1278,68 +1311,38 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_10.19/act_hhl_ty_config.xlsx
+++ b/config_10.19/act_hhl_ty_config.xlsx
@@ -813,7 +813,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,196 +858,193 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5">
+        <v>300000</v>
+      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="B3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5">
+        <v>60000</v>
+      </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2">
-        <v>6000</v>
+        <v>42000</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
         <v>0</v>
       </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
         <v>0</v>
       </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>42000</v>
+        <v>6000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5">
-        <v>60000</v>
-      </c>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5">
-        <v>300000</v>
-      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
@@ -1260,6 +1257,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1269,24 +1276,15 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1301,18 +1299,17 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1324,13 +1321,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1342,7 +1339,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_10.19/act_hhl_ty_config.xlsx
+++ b/config_10.19/act_hhl_ty_config.xlsx
@@ -222,19 +222,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ty_icon_yxb_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_prop_exchange_v3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +813,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,7 +862,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5">
         <v>300000</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -978,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2">
         <v>9000</v>
@@ -1016,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>3000</v>
@@ -1257,16 +1257,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1276,15 +1266,24 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1299,17 +1298,18 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1321,13 +1321,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1339,7 +1339,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>